--- a/CreonApi/8092.xlsx
+++ b/CreonApi/8092.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="262">
   <si>
     <t>시간</t>
   </si>
@@ -28,205 +28,778 @@
     <t>특이사항</t>
   </si>
   <si>
-    <t>17:47</t>
-  </si>
-  <si>
-    <t>17:46</t>
-  </si>
-  <si>
-    <t>17:45</t>
-  </si>
-  <si>
-    <t>17:44</t>
-  </si>
-  <si>
-    <t>17:43</t>
-  </si>
-  <si>
-    <t>A222810</t>
-  </si>
-  <si>
-    <t>A032620</t>
-  </si>
-  <si>
-    <t>A090430</t>
-  </si>
-  <si>
-    <t>A030350</t>
+    <t>16:44</t>
+  </si>
+  <si>
+    <t>16:43</t>
+  </si>
+  <si>
+    <t>16:42</t>
+  </si>
+  <si>
+    <t>16:41</t>
+  </si>
+  <si>
+    <t>16:40</t>
+  </si>
+  <si>
+    <t>16:39</t>
+  </si>
+  <si>
+    <t>16:38</t>
+  </si>
+  <si>
+    <t>16:37</t>
+  </si>
+  <si>
+    <t>16:35</t>
+  </si>
+  <si>
+    <t>16:36</t>
+  </si>
+  <si>
+    <t>16:34</t>
+  </si>
+  <si>
+    <t>16:33</t>
+  </si>
+  <si>
+    <t>16:32</t>
+  </si>
+  <si>
+    <t>16:31</t>
+  </si>
+  <si>
+    <t>16:30</t>
+  </si>
+  <si>
+    <t>16:27</t>
+  </si>
+  <si>
+    <t>16:29</t>
+  </si>
+  <si>
+    <t>16:26</t>
+  </si>
+  <si>
+    <t>16:28</t>
+  </si>
+  <si>
+    <t>16:25</t>
+  </si>
+  <si>
+    <t>16:24</t>
+  </si>
+  <si>
+    <t>16:23</t>
+  </si>
+  <si>
+    <t>A281310</t>
+  </si>
+  <si>
+    <t>A066570</t>
+  </si>
+  <si>
+    <t>A003550</t>
+  </si>
+  <si>
+    <t>A088390</t>
+  </si>
+  <si>
+    <t>A006800</t>
+  </si>
+  <si>
+    <t>A030000</t>
+  </si>
+  <si>
+    <t>A010120</t>
+  </si>
+  <si>
+    <t>A005930</t>
+  </si>
+  <si>
+    <t>A096770</t>
+  </si>
+  <si>
+    <t>A004020</t>
+  </si>
+  <si>
+    <t>A267250</t>
+  </si>
+  <si>
+    <t>A034300</t>
+  </si>
+  <si>
+    <t>A005420</t>
+  </si>
+  <si>
+    <t>A025560</t>
+  </si>
+  <si>
+    <t>A019490</t>
+  </si>
+  <si>
+    <t>A065130</t>
+  </si>
+  <si>
+    <t>A005940</t>
+  </si>
+  <si>
+    <t>A142760</t>
+  </si>
+  <si>
+    <t>A009830</t>
+  </si>
+  <si>
+    <t>A078340</t>
+  </si>
+  <si>
+    <t>A047810</t>
+  </si>
+  <si>
+    <t>A138930</t>
+  </si>
+  <si>
+    <t>A218410</t>
+  </si>
+  <si>
+    <t>A072990</t>
+  </si>
+  <si>
+    <t>A093520</t>
+  </si>
+  <si>
+    <t>A139130</t>
+  </si>
+  <si>
+    <t>A318020</t>
+  </si>
+  <si>
+    <t>A302440</t>
+  </si>
+  <si>
+    <t>A219550</t>
+  </si>
+  <si>
+    <t>A003470</t>
+  </si>
+  <si>
+    <t>A083660</t>
+  </si>
+  <si>
+    <t>A000660</t>
+  </si>
+  <si>
+    <t>A182690</t>
+  </si>
+  <si>
+    <t>A013990</t>
+  </si>
+  <si>
+    <t>A005300</t>
+  </si>
+  <si>
+    <t>A155660</t>
+  </si>
+  <si>
+    <t>A089590</t>
+  </si>
+  <si>
+    <t>A005490</t>
+  </si>
+  <si>
+    <t>A069620</t>
   </si>
   <si>
     <t>A051910</t>
   </si>
   <si>
-    <t>A002070</t>
-  </si>
-  <si>
-    <t>A009540</t>
-  </si>
-  <si>
-    <t>A006260</t>
-  </si>
-  <si>
-    <t>A330350</t>
-  </si>
-  <si>
-    <t>A028260</t>
-  </si>
-  <si>
-    <t>A058630</t>
+    <t>A032830</t>
+  </si>
+  <si>
+    <t>A011790</t>
+  </si>
+  <si>
+    <t>A039130</t>
+  </si>
+  <si>
+    <t>A031440</t>
+  </si>
+  <si>
+    <t>A148140</t>
+  </si>
+  <si>
+    <t>A077970</t>
+  </si>
+  <si>
+    <t>A004830</t>
+  </si>
+  <si>
+    <t>A004560</t>
+  </si>
+  <si>
+    <t>A000220</t>
+  </si>
+  <si>
+    <t>A000320</t>
+  </si>
+  <si>
+    <t>A001790</t>
+  </si>
+  <si>
+    <t>A011070</t>
+  </si>
+  <si>
+    <t>A001500</t>
+  </si>
+  <si>
+    <t>A035720</t>
+  </si>
+  <si>
+    <t>A215600</t>
+  </si>
+  <si>
+    <t>A128940</t>
+  </si>
+  <si>
+    <t>A073640</t>
   </si>
   <si>
     <t>A001510</t>
   </si>
   <si>
-    <t>A005940</t>
-  </si>
-  <si>
-    <t>A006800</t>
-  </si>
-  <si>
     <t>A016360</t>
   </si>
   <si>
-    <t>A066130</t>
-  </si>
-  <si>
-    <t>A289220</t>
-  </si>
-  <si>
-    <t>A304840</t>
-  </si>
-  <si>
-    <t>A900340</t>
-  </si>
-  <si>
-    <t>A096770</t>
-  </si>
-  <si>
-    <t>A263050</t>
-  </si>
-  <si>
-    <t>A006890</t>
-  </si>
-  <si>
-    <t>마이더스AI</t>
-  </si>
-  <si>
-    <t>유비케어</t>
-  </si>
-  <si>
-    <t>아모레퍼시픽</t>
-  </si>
-  <si>
-    <t>드래곤플라이</t>
+    <t>A053590</t>
+  </si>
+  <si>
+    <t>A006360</t>
+  </si>
+  <si>
+    <t>A079970</t>
+  </si>
+  <si>
+    <t>A307750</t>
+  </si>
+  <si>
+    <t>A098460</t>
+  </si>
+  <si>
+    <t>A000880</t>
+  </si>
+  <si>
+    <t>A243840</t>
+  </si>
+  <si>
+    <t>A267980</t>
+  </si>
+  <si>
+    <t>바이오시네틱스</t>
+  </si>
+  <si>
+    <t>LG전자</t>
+  </si>
+  <si>
+    <t>LG</t>
+  </si>
+  <si>
+    <t>이녹스</t>
+  </si>
+  <si>
+    <t>미래에셋증권</t>
+  </si>
+  <si>
+    <t>제일기획</t>
+  </si>
+  <si>
+    <t>LS ELECTRIC</t>
+  </si>
+  <si>
+    <t>삼성전자</t>
+  </si>
+  <si>
+    <t>SK이노베이션</t>
+  </si>
+  <si>
+    <t>현대제철</t>
+  </si>
+  <si>
+    <t>현대중공업지주</t>
+  </si>
+  <si>
+    <t>신세계건설</t>
+  </si>
+  <si>
+    <t>코스모화학</t>
+  </si>
+  <si>
+    <t>미래산업</t>
+  </si>
+  <si>
+    <t>하이트론</t>
+  </si>
+  <si>
+    <t>탑엔지니어링</t>
+  </si>
+  <si>
+    <t>NH투자증권</t>
+  </si>
+  <si>
+    <t>바이오리더스</t>
+  </si>
+  <si>
+    <t>한화솔루션</t>
+  </si>
+  <si>
+    <t>컴투스</t>
+  </si>
+  <si>
+    <t>한국항공우주</t>
+  </si>
+  <si>
+    <t>BNK금융지주</t>
+  </si>
+  <si>
+    <t>RFHIC</t>
+  </si>
+  <si>
+    <t>에이치시티</t>
+  </si>
+  <si>
+    <t>매커스</t>
+  </si>
+  <si>
+    <t>DGB금융지주</t>
+  </si>
+  <si>
+    <t>포인트모바일</t>
+  </si>
+  <si>
+    <t>SK바이오사이언스</t>
+  </si>
+  <si>
+    <t>자안코스메틱</t>
+  </si>
+  <si>
+    <t>유안타증권</t>
+  </si>
+  <si>
+    <t>CSA 코스믹</t>
+  </si>
+  <si>
+    <t>SK하이닉스</t>
+  </si>
+  <si>
+    <t>테라셈</t>
+  </si>
+  <si>
+    <t>아가방컴퍼니</t>
+  </si>
+  <si>
+    <t>롯데칠성</t>
+  </si>
+  <si>
+    <t>DSR</t>
+  </si>
+  <si>
+    <t>제주항공</t>
+  </si>
+  <si>
+    <t>POSCO</t>
+  </si>
+  <si>
+    <t>대웅제약</t>
   </si>
   <si>
     <t>LG화학</t>
   </si>
   <si>
-    <t>비비안</t>
-  </si>
-  <si>
-    <t>한국조선해양</t>
-  </si>
-  <si>
-    <t>LS</t>
-  </si>
-  <si>
-    <t>위더스제약</t>
-  </si>
-  <si>
-    <t>삼성물산</t>
-  </si>
-  <si>
-    <t>엠게임</t>
+    <t>삼성생명</t>
+  </si>
+  <si>
+    <t>SKC</t>
+  </si>
+  <si>
+    <t>하나투어</t>
+  </si>
+  <si>
+    <t>신세계푸드</t>
+  </si>
+  <si>
+    <t>비디아이</t>
+  </si>
+  <si>
+    <t>STX엔진</t>
+  </si>
+  <si>
+    <t>덕성</t>
+  </si>
+  <si>
+    <t>현대비앤지스틸</t>
+  </si>
+  <si>
+    <t>유유제약</t>
+  </si>
+  <si>
+    <t>노루홀딩스</t>
+  </si>
+  <si>
+    <t>대한제당</t>
+  </si>
+  <si>
+    <t>LG이노텍</t>
+  </si>
+  <si>
+    <t>현대차증권</t>
+  </si>
+  <si>
+    <t>카카오</t>
+  </si>
+  <si>
+    <t>신라젠</t>
+  </si>
+  <si>
+    <t>한미약품</t>
+  </si>
+  <si>
+    <t>테라사이언스</t>
   </si>
   <si>
     <t>SK증권</t>
   </si>
   <si>
-    <t>NH투자증권</t>
-  </si>
-  <si>
-    <t>미래에셋증권</t>
-  </si>
-  <si>
     <t>삼성증권</t>
   </si>
   <si>
-    <t>하츠</t>
-  </si>
-  <si>
-    <t>자이언트스텝</t>
-  </si>
-  <si>
-    <t>피플바이오</t>
-  </si>
-  <si>
-    <t>윙입푸드</t>
-  </si>
-  <si>
-    <t>SK이노베이션</t>
-  </si>
-  <si>
-    <t>유틸렉스</t>
-  </si>
-  <si>
-    <t>태경케미컬</t>
-  </si>
-  <si>
-    <t>(주)마이더스AI 전환사채권발행결정(제14회차)</t>
-  </si>
-  <si>
-    <t>유비케어, 1분기 매출액 264억원</t>
-  </si>
-  <si>
-    <t>오랜만에 웃은 아모레퍼시픽</t>
-  </si>
-  <si>
-    <t>(주)드래곤플라이 유형자산 양도 결정</t>
-  </si>
-  <si>
-    <t>석유화학·배터리가 이끈 LG화학, 사상 첫 영업익 1조원대(종합)</t>
-  </si>
-  <si>
-    <t>(주)비비안 추가상장(국내CB전환)</t>
-  </si>
-  <si>
-    <t>한국조선해양(주) 기타 경영사항(자율공시)</t>
-  </si>
-  <si>
-    <t>LS전선, 장외 시장서 자사주 매입…"책임경영 강화"</t>
-  </si>
-  <si>
-    <t>위더스제약(주) 영업정지</t>
-  </si>
-  <si>
-    <t>삼성물산, 1분기 영업익 3026억원…전년 比 105.8% 상승</t>
-  </si>
-  <si>
-    <t>엠게임, 中 ‘제국영웅’ 한국-동남아 퍼블리싱</t>
-  </si>
-  <si>
-    <t>SKIET 공모주 청약 첫날 증거금 22조...SK바사 뛰어넘었다</t>
-  </si>
-  <si>
-    <t>[좋은정보의 '황맥기'] 피플바이오 급등! 일부 수익실현! 오늘 황맥기 포착 종목은?</t>
-  </si>
-  <si>
-    <t>윙입푸드홀딩스 (정정)현금ㆍ현물배당 결정</t>
-  </si>
-  <si>
-    <t>윙입푸드홀딩스 외국지주회사의 자회사 편입ㆍ탈퇴</t>
-  </si>
-  <si>
-    <t>SK이노, 윤활유 자회사 지분 40％ 매각…"친환경 사업 체질개선"</t>
-  </si>
-  <si>
-    <t>(주)유틸렉스 추가상장(주식매수선택권행사)</t>
-  </si>
-  <si>
-    <t>[급등왕의 '급등맥 필살기'] 네오펙트, 상승 여력 남았나? 현 시점 전략은?</t>
+    <t>한국테크놀로지</t>
+  </si>
+  <si>
+    <t>GS건설</t>
+  </si>
+  <si>
+    <t>투비소프트</t>
+  </si>
+  <si>
+    <t>국전약품</t>
+  </si>
+  <si>
+    <t>고영</t>
+  </si>
+  <si>
+    <t>한화</t>
+  </si>
+  <si>
+    <t>신흥에스이씨</t>
+  </si>
+  <si>
+    <t>매일유업</t>
+  </si>
+  <si>
+    <t>(주)바이오시네틱스 추가상장(주식매수선택권행사)</t>
+  </si>
+  <si>
+    <t>(컨콜)LG전자 "올해 하반기 가전 '펜트업 효과' 지속"</t>
+  </si>
+  <si>
+    <t>[LG전자 컨콜]"올해 게이밍모니터 시장, 43% 성장 전망"</t>
+  </si>
+  <si>
+    <t>(주)이녹스 증권 발행결과(자율공시)</t>
+  </si>
+  <si>
+    <t>[시그널] SKIET '증거금 81조' IPO 신기록 썼지만···210만 개미 군단은 ‘빈손'</t>
+  </si>
+  <si>
+    <t>SKIET, 최종 경쟁률 288.17대 1…全 증권사 '1주'도 받기 어렵다[종합]</t>
+  </si>
+  <si>
+    <t>[LG전자 컨콜]"휴대폰 IP자산, IoT 가전·커넥티드카에 활용할 것"</t>
+  </si>
+  <si>
+    <t>제일기획, '디지털 효과' 1분기 최대 영업이익 410억원(상보)</t>
+  </si>
+  <si>
+    <t>[IR일정] 엘에스일렉트릭, 21년 1분기 경영실적(온라인)</t>
+  </si>
+  <si>
+    <t>코로나 효과에 훨훨 난 삼성·LG '가전'…신기록 행진 이어질까</t>
+  </si>
+  <si>
+    <t>[컨콜]LG전자 “코로나 상황 끝나도 위생·건강가전 수요 지속 증가”</t>
+  </si>
+  <si>
+    <t>[마감레슨] 1분기 몸 풀기 끝났다 'SK이노베이션'</t>
+  </si>
+  <si>
+    <t>[컨콜]LG전자 "올해 게이밍 모니터 시장 43% 성장 예상…판매 집중"</t>
+  </si>
+  <si>
+    <t>한국조선 1Q 영업익 작년보다 44%↓정작 "수퍼사이클 온다" 기대</t>
+  </si>
+  <si>
+    <t>현대중공업지주, 1Q 영업익 5343억···‘정유·건설기계’ 실적 견인(종합)</t>
+  </si>
+  <si>
+    <t>[공시] 신세계건설, 1455억 규모 공사 수주</t>
+  </si>
+  <si>
+    <t>코스모화학(주) 추가상장(국내CB전환)</t>
+  </si>
+  <si>
+    <t>미래산업(주) 변경상장(액면병합)</t>
+  </si>
+  <si>
+    <t>[LG전자 컨콜] "1Q 올레드 TV 출하량, 전년 대비 2배 이상 규모"</t>
+  </si>
+  <si>
+    <t>[LG전자 컨콜] "마그나와 합작 시너지 2024년 이후 날 것"</t>
+  </si>
+  <si>
+    <t>(주)하이트론씨스템즈 추가상장(국내CB전환)</t>
+  </si>
+  <si>
+    <t>(주)탑엔지니어링 (정정)단일판매ㆍ공급계약체결(자율공시)</t>
+  </si>
+  <si>
+    <t>NH투자증권, 1분기 순이익 2574억원…“사상 최대 분기 실적”</t>
+  </si>
+  <si>
+    <t>【시장분석】 걸리기면 하면 기본 100% 수익! 종목선택의 귀재 최택규 전문가!</t>
+  </si>
+  <si>
+    <t>[IB토마토](크레딧시그널)신세계건설, 레저사업 부진에 부채비율 200% 상회</t>
+  </si>
+  <si>
+    <t>(컨콜)LG전자 "MC본부 핵심 IP ,스마트 가전 등에 활용"</t>
+  </si>
+  <si>
+    <t>[IR일정] 한화솔루션, 2021년 1분기 경영실적 발표(국내)</t>
+  </si>
+  <si>
+    <t>컴투스, '서머너즈 워:백년전쟁' 글로벌 동시 출시</t>
+  </si>
+  <si>
+    <t>KAI·서울대 손잡고 미래 비행체 기술 변화 주도</t>
+  </si>
+  <si>
+    <t>[컨콜]LG전자 "MC본부 핵심IP, IoT 기반 신제품 개발 등에 활용"</t>
+  </si>
+  <si>
+    <t>[컨콜] LG전자 "LG마그나 JV 수익은 2024년부터"</t>
+  </si>
+  <si>
+    <t>(컨콜)LG전자 "IT 시장 성장 예상…게이밍모니터 판매 집중"</t>
+  </si>
+  <si>
+    <t>[공시] BNK금융지주, 1분기 당기순익 2035억 원···전년대비 37.09%↑</t>
+  </si>
+  <si>
+    <t>알에프에이치아이씨(주) 유상증자결정(주주배정후 실권주 일반공모)</t>
+  </si>
+  <si>
+    <t>LG전자 "마그나 전장합작사, 시장 규모 넘는 성장률 예상"</t>
+  </si>
+  <si>
+    <t>[IRFOCUS] 에이치시티 1분기 영업이익 34억 원, “사상 최고치 경신”</t>
+  </si>
+  <si>
+    <t>(주)매커스 단일판매ㆍ공급계약체결</t>
+  </si>
+  <si>
+    <t>[컨콜]LG전자 “MC부문 IP자산, 스마트 가전·IoT기반 신제품 개발 활용”</t>
+  </si>
+  <si>
+    <t>[공시] DGB금융지주, 1분기 당기순익 1361억···전년대비 39.4%↑</t>
+  </si>
+  <si>
+    <t>[컨콜]LG전자 "마그나 JV 합병 매출 시너지, 2024년 이후 본격화 예상"</t>
+  </si>
+  <si>
+    <t>[IR일정] 포인트모바일, 당사 사업 소개(국내)</t>
+  </si>
+  <si>
+    <t>SK IET, IPO 신기록 갈아치웠다...청약 증거금 80조원</t>
+  </si>
+  <si>
+    <t>[공시] NH투자증권, 1분기 당기순익 2574억···전년대비 728.1%↑</t>
+  </si>
+  <si>
+    <t>자안코스메틱(주) 주권매매거래정지(주식의 병합, 분할 등 전자등록 변경, 말소)</t>
+  </si>
+  <si>
+    <t>유안타증권, 다이렉트 투자권유대행인 제도 신설</t>
+  </si>
+  <si>
+    <t>‘IPO 새역사’ SKIET 일반청약에 81조 몰렸다</t>
+  </si>
+  <si>
+    <t>[Lovefund 이성수대표 증시 칼럼] 못난이 업종들 철강, 조선, 건설, 화학주들의 변신</t>
+  </si>
+  <si>
+    <t>장 중 기업공시[4월 29일]</t>
+  </si>
+  <si>
+    <t>테라셈(주) 불성실공시법인지정예고(공시불이행)</t>
+  </si>
+  <si>
+    <t>(주)아가방앤컴퍼니 연결재무제표 기준 영업(잠정)실적(공정공시)</t>
+  </si>
+  <si>
+    <t>[biz인사이드] '술맛' 덕본 롯데칠성음료, 실적 개선 시동건다</t>
+  </si>
+  <si>
+    <t>[일문일답]금융위 "차주 90%는 이번 DSR 규제강화 영향 없을 것"</t>
+  </si>
+  <si>
+    <t>제주항공, 승무원이 운영하는 기내식 카페 ‘여행맛’ 오픈</t>
+  </si>
+  <si>
+    <t>현대중공업지주, 역대 최대 분기이익 달성</t>
+  </si>
+  <si>
+    <t>[표] 코스피 지수선물·옵션 시세표(29일)-2</t>
+  </si>
+  <si>
+    <t>특허청, 대웅제약 '실험 데이터 조작' 검찰 수사의뢰</t>
+  </si>
+  <si>
+    <t>[마켓인]SKIET, 청약 경쟁률 288.17대 1… 증거금 81兆 신기록</t>
+  </si>
+  <si>
+    <t>[컨콜]LG전자 "1Q OLED TV 출하량 초과 달성…연간 목표 전년대비 두 배 수준"</t>
+  </si>
+  <si>
+    <t>[IR일정] LG화학, 회사실적 및 주요 경영현황 설명(국내외)</t>
+  </si>
+  <si>
+    <t>퇴직연금 디폴트옵션 도입 논란…수익성? 안정성?</t>
+  </si>
+  <si>
+    <t>[컨콜]LG전자 “마그나 JV 매출 시너지 2024년 이후 본격 발생”</t>
+  </si>
+  <si>
+    <t>LG전자 "LCD 패널값 상승…올레드TV 비중 10%p 증가"</t>
+  </si>
+  <si>
+    <t>[LG전자 컨콜]"올레드 TV 판매 비중, 전년보다 8~10% 늘었다"</t>
+  </si>
+  <si>
+    <t>SKC, SPC그룹과 친환경 생분해 포장재 확대 협력</t>
+  </si>
+  <si>
+    <t>(컨콜)LG전자 "MC 인력 고용유지…비용 측정은 어려워"</t>
+  </si>
+  <si>
+    <t>'백신 여행' 소식에 여행업계 "기대 반 걱정 반"</t>
+  </si>
+  <si>
+    <t>신세계푸드, 노브랜드 버거 100호점 달성…'SSG랜더스필드점' 오픈</t>
+  </si>
+  <si>
+    <t>비디아이(주) 기타 주요경영사항(제11회차 CB 발행결정 철회)</t>
+  </si>
+  <si>
+    <t>STX엔진(주) [투자주의]15일간 상승종목의 당일 소수계좌 매수관여 과다종목</t>
+  </si>
+  <si>
+    <t>(주)덕성 투자경고종목 지정(재지정)(덕성우)</t>
+  </si>
+  <si>
+    <t>현대비앤지스틸(주) [투자주의]투자경고종목 지정예고</t>
+  </si>
+  <si>
+    <t>(주)유유제약 [투자주의]투자경고종목 지정해제 및 재지정 예고</t>
+  </si>
+  <si>
+    <t>(주)유유제약 [투자주의]투자경고종목 지정해제 및 재지정 예고(유유제약1우)</t>
+  </si>
+  <si>
+    <t>등락 반복하는 혼돈의 코스피…공매도 소나기 피할 방법은</t>
+  </si>
+  <si>
+    <t>(주)노루홀딩스 매매거래정지 예고(노루홀딩스우)</t>
+  </si>
+  <si>
+    <t>대한제당(주) 매매거래정지 예고(대한제당우)</t>
+  </si>
+  <si>
+    <t>비디아이(주) (정정)전환사채권발행결정(제12회차 - 철회)</t>
+  </si>
+  <si>
+    <t>LG이노텍, 1Q 영업익 3468억원...전년비 97%↑</t>
+  </si>
+  <si>
+    <t>비디아이(주) (정정)전환사채권발행결정(제11회차-철회)</t>
+  </si>
+  <si>
+    <t>현대차증권, 1분기 사상 최대 실적…IB·리테일 호조</t>
+  </si>
+  <si>
+    <t>KB증권, 유망종목 담은 '글로벌 원마켓 포트폴리오' 제시</t>
+  </si>
+  <si>
+    <t>[컨콜]LG전자 “올해 OLED 연간 출하량, 전년비 2배 수준 예상”</t>
+  </si>
+  <si>
+    <t>[속보] IPO 새역사 쓴 SKIET…최종 경쟁률 288.17대 1</t>
+  </si>
+  <si>
+    <t>신라젠-엠투엔, 태스크포스팀 발족</t>
+  </si>
+  <si>
+    <t>제일기획, 1분기 영업이익 410억원…전년比 34.2% 증가(종합)</t>
+  </si>
+  <si>
+    <t>한미약품, SD바이오센서 자가검사키트 전국 유통</t>
+  </si>
+  <si>
+    <t>[속보] SKIET 청약, 역대 최대 80.9조 몰렸다</t>
+  </si>
+  <si>
+    <t>[컨콜]LG전자 "LCD 패널 가격 강세…OLED TV 비중 8~10%p 증가"</t>
+  </si>
+  <si>
+    <t>(컨콜)LG전자 "OLED TV 매출 비중, 전년 대비 8~10% 상승"</t>
+  </si>
+  <si>
+    <t>테라사이언스, 온코펩 1000만달러 프리IPO 성공 “임상 2상 속도”</t>
+  </si>
+  <si>
+    <t>SKIET 공모주 청약 기록 새로 썼다…역대 최대 증거금 81조</t>
+  </si>
+  <si>
+    <t>제일기획, 1Q 영업익 409억원…전년 比 34% 증가</t>
+  </si>
+  <si>
+    <t>[IR일정] 한국테크놀로지, 주요 진행사항 발표(국내)</t>
+  </si>
+  <si>
+    <t>GS건설, 인천 미추홀구 '용현자이 크레스트' 분양</t>
+  </si>
+  <si>
+    <t>(주)투비소프트 기타 경영사항(특허권 취득)(자율공시)</t>
+  </si>
+  <si>
+    <t>[컨콜]LG전자 “OLED TV 매출 비중 전년대비 8~10%P 증가”</t>
+  </si>
+  <si>
+    <t>(주)국전약품 유상증자1차발행가액결정</t>
+  </si>
+  <si>
+    <t>(주)고영테크놀러지 (정정)연결재무제표 기준 영업(잠정)실적(공정공시)</t>
+  </si>
+  <si>
+    <t>[인터뷰] 스파크랩 이한주 “스타트업이 경제의 축”</t>
+  </si>
+  <si>
+    <t>신흥에스이씨(주) 추가상장(국내사모 CB전환)</t>
+  </si>
+  <si>
+    <t>매일유업, 남해군과 '건강격차 해소' 연구협약</t>
+  </si>
+  <si>
+    <t>[LG전자 컨콜]"아직 MC사업부 직원 재배치 진행중‥비용 규모 측정 어려워"</t>
   </si>
 </sst>
 </file>
@@ -584,7 +1157,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E107"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -612,13 +1185,13 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>31</v>
+        <v>93</v>
       </c>
       <c r="E2" t="s">
-        <v>53</v>
+        <v>160</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -626,16 +1199,16 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>32</v>
+        <v>94</v>
       </c>
       <c r="E3" t="s">
-        <v>54</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -643,16 +1216,16 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="D4" t="s">
-        <v>33</v>
+        <v>95</v>
       </c>
       <c r="E4" t="s">
-        <v>55</v>
+        <v>162</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -663,13 +1236,13 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="D5" t="s">
-        <v>34</v>
+        <v>96</v>
       </c>
       <c r="E5" t="s">
-        <v>56</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -680,13 +1253,13 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="D6" t="s">
-        <v>35</v>
+        <v>97</v>
       </c>
       <c r="E6" t="s">
-        <v>57</v>
+        <v>164</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -697,13 +1270,13 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="D7" t="s">
-        <v>36</v>
+        <v>97</v>
       </c>
       <c r="E7" t="s">
-        <v>58</v>
+        <v>165</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -714,13 +1287,13 @@
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="D8" t="s">
-        <v>37</v>
+        <v>95</v>
       </c>
       <c r="E8" t="s">
-        <v>59</v>
+        <v>166</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -728,16 +1301,16 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>31</v>
       </c>
       <c r="D9" t="s">
-        <v>38</v>
+        <v>98</v>
       </c>
       <c r="E9" t="s">
-        <v>60</v>
+        <v>167</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -748,13 +1321,13 @@
         <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="D10" t="s">
-        <v>39</v>
+        <v>99</v>
       </c>
       <c r="E10" t="s">
-        <v>61</v>
+        <v>168</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -762,16 +1335,16 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="D11" t="s">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="E11" t="s">
-        <v>62</v>
+        <v>169</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -779,16 +1352,16 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C12" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>41</v>
+        <v>94</v>
       </c>
       <c r="E12" t="s">
-        <v>63</v>
+        <v>170</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -799,13 +1372,13 @@
         <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="D13" t="s">
-        <v>42</v>
+        <v>101</v>
       </c>
       <c r="E13" t="s">
-        <v>64</v>
+        <v>171</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -816,13 +1389,13 @@
         <v>7</v>
       </c>
       <c r="C14" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>43</v>
+        <v>94</v>
       </c>
       <c r="E14" t="s">
-        <v>64</v>
+        <v>172</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -833,13 +1406,13 @@
         <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="D15" t="s">
-        <v>44</v>
+        <v>102</v>
       </c>
       <c r="E15" t="s">
-        <v>64</v>
+        <v>173</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -847,16 +1420,16 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="D16" t="s">
-        <v>45</v>
+        <v>103</v>
       </c>
       <c r="E16" t="s">
-        <v>64</v>
+        <v>174</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -864,16 +1437,16 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="D17" t="s">
-        <v>46</v>
+        <v>104</v>
       </c>
       <c r="E17" t="s">
-        <v>65</v>
+        <v>175</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -881,16 +1454,16 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="D18" t="s">
-        <v>47</v>
+        <v>105</v>
       </c>
       <c r="E18" t="s">
-        <v>65</v>
+        <v>176</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -898,16 +1471,16 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>39</v>
       </c>
       <c r="D19" t="s">
-        <v>48</v>
+        <v>106</v>
       </c>
       <c r="E19" t="s">
-        <v>65</v>
+        <v>177</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -915,16 +1488,16 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>49</v>
+        <v>94</v>
       </c>
       <c r="E20" t="s">
-        <v>66</v>
+        <v>178</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -932,16 +1505,16 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>49</v>
+        <v>94</v>
       </c>
       <c r="E21" t="s">
-        <v>67</v>
+        <v>179</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -952,13 +1525,13 @@
         <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="D22" t="s">
-        <v>50</v>
+        <v>107</v>
       </c>
       <c r="E22" t="s">
-        <v>68</v>
+        <v>180</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -969,13 +1542,13 @@
         <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="D23" t="s">
-        <v>51</v>
+        <v>108</v>
       </c>
       <c r="E23" t="s">
-        <v>69</v>
+        <v>181</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -986,13 +1559,1424 @@
         <v>8</v>
       </c>
       <c r="C24" t="s">
+        <v>42</v>
+      </c>
+      <c r="D24" t="s">
+        <v>109</v>
+      </c>
+      <c r="E24" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25" t="s">
+        <v>43</v>
+      </c>
+      <c r="D25" t="s">
+        <v>110</v>
+      </c>
+      <c r="E25" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26" t="s">
+        <v>37</v>
+      </c>
+      <c r="D26" t="s">
+        <v>104</v>
+      </c>
+      <c r="E26" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>94</v>
+      </c>
+      <c r="E27" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" t="s">
+        <v>44</v>
+      </c>
+      <c r="D28" t="s">
+        <v>111</v>
+      </c>
+      <c r="E28" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" t="s">
+        <v>45</v>
+      </c>
+      <c r="D29" t="s">
+        <v>112</v>
+      </c>
+      <c r="E29" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>11</v>
+      </c>
+      <c r="C30" t="s">
+        <v>46</v>
+      </c>
+      <c r="D30" t="s">
+        <v>113</v>
+      </c>
+      <c r="E30" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>11</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>94</v>
+      </c>
+      <c r="E31" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="1">
         <v>30</v>
       </c>
-      <c r="D24" t="s">
+      <c r="B32" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>94</v>
+      </c>
+      <c r="E32" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>94</v>
+      </c>
+      <c r="E33" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" t="s">
+        <v>47</v>
+      </c>
+      <c r="D34" t="s">
+        <v>114</v>
+      </c>
+      <c r="E34" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>13</v>
+      </c>
+      <c r="C35" t="s">
+        <v>48</v>
+      </c>
+      <c r="D35" t="s">
+        <v>115</v>
+      </c>
+      <c r="E35" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>13</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>94</v>
+      </c>
+      <c r="E36" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>13</v>
+      </c>
+      <c r="C37" t="s">
+        <v>49</v>
+      </c>
+      <c r="D37" t="s">
+        <v>116</v>
+      </c>
+      <c r="E37" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>12</v>
+      </c>
+      <c r="C38" t="s">
+        <v>50</v>
+      </c>
+      <c r="D38" t="s">
+        <v>117</v>
+      </c>
+      <c r="E38" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>12</v>
+      </c>
+      <c r="C39" t="s">
+        <v>27</v>
+      </c>
+      <c r="D39" t="s">
+        <v>94</v>
+      </c>
+      <c r="E39" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>14</v>
+      </c>
+      <c r="C40" t="s">
+        <v>51</v>
+      </c>
+      <c r="D40" t="s">
+        <v>118</v>
+      </c>
+      <c r="E40" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>14</v>
+      </c>
+      <c r="C41" t="s">
+        <v>27</v>
+      </c>
+      <c r="D41" t="s">
+        <v>94</v>
+      </c>
+      <c r="E41" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>14</v>
+      </c>
+      <c r="C42" t="s">
         <v>52</v>
       </c>
-      <c r="E24" t="s">
+      <c r="D42" t="s">
+        <v>119</v>
+      </c>
+      <c r="E42" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>15</v>
+      </c>
+      <c r="C43" t="s">
+        <v>53</v>
+      </c>
+      <c r="D43" t="s">
+        <v>120</v>
+      </c>
+      <c r="E43" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>15</v>
+      </c>
+      <c r="C44" t="s">
+        <v>42</v>
+      </c>
+      <c r="D44" t="s">
+        <v>109</v>
+      </c>
+      <c r="E44" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>15</v>
+      </c>
+      <c r="C45" t="s">
+        <v>54</v>
+      </c>
+      <c r="D45" t="s">
+        <v>121</v>
+      </c>
+      <c r="E45" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>16</v>
+      </c>
+      <c r="C46" t="s">
+        <v>55</v>
+      </c>
+      <c r="D46" t="s">
+        <v>122</v>
+      </c>
+      <c r="E46" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>17</v>
+      </c>
+      <c r="C47" t="s">
+        <v>34</v>
+      </c>
+      <c r="D47" t="s">
+        <v>101</v>
+      </c>
+      <c r="E47" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>16</v>
+      </c>
+      <c r="C48" t="s">
+        <v>56</v>
+      </c>
+      <c r="D48" t="s">
+        <v>123</v>
+      </c>
+      <c r="E48" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>16</v>
+      </c>
+      <c r="C49" t="s">
+        <v>57</v>
+      </c>
+      <c r="D49" t="s">
+        <v>124</v>
+      </c>
+      <c r="E49" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>16</v>
+      </c>
+      <c r="C50" t="s">
+        <v>58</v>
+      </c>
+      <c r="D50" t="s">
+        <v>125</v>
+      </c>
+      <c r="E50" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>17</v>
+      </c>
+      <c r="C51" t="s">
+        <v>59</v>
+      </c>
+      <c r="D51" t="s">
+        <v>126</v>
+      </c>
+      <c r="E51" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>17</v>
+      </c>
+      <c r="C52" t="s">
+        <v>60</v>
+      </c>
+      <c r="D52" t="s">
+        <v>127</v>
+      </c>
+      <c r="E52" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>17</v>
+      </c>
+      <c r="C53" t="s">
+        <v>61</v>
+      </c>
+      <c r="D53" t="s">
+        <v>128</v>
+      </c>
+      <c r="E53" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>17</v>
+      </c>
+      <c r="C54" t="s">
+        <v>62</v>
+      </c>
+      <c r="D54" t="s">
+        <v>129</v>
+      </c>
+      <c r="E54" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
+        <v>18</v>
+      </c>
+      <c r="C55" t="s">
+        <v>36</v>
+      </c>
+      <c r="D55" t="s">
+        <v>103</v>
+      </c>
+      <c r="E55" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
+        <v>18</v>
+      </c>
+      <c r="C56" t="s">
+        <v>63</v>
+      </c>
+      <c r="D56" t="s">
+        <v>130</v>
+      </c>
+      <c r="E56" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
+        <v>19</v>
+      </c>
+      <c r="C57" t="s">
+        <v>64</v>
+      </c>
+      <c r="D57" t="s">
+        <v>131</v>
+      </c>
+      <c r="E57" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58" t="s">
+        <v>18</v>
+      </c>
+      <c r="C58" t="s">
+        <v>53</v>
+      </c>
+      <c r="D58" t="s">
+        <v>120</v>
+      </c>
+      <c r="E58" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
+        <v>18</v>
+      </c>
+      <c r="C59" t="s">
+        <v>27</v>
+      </c>
+      <c r="D59" t="s">
+        <v>94</v>
+      </c>
+      <c r="E59" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60" t="s">
+        <v>18</v>
+      </c>
+      <c r="C60" t="s">
+        <v>65</v>
+      </c>
+      <c r="D60" t="s">
+        <v>132</v>
+      </c>
+      <c r="E60" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61" t="s">
+        <v>20</v>
+      </c>
+      <c r="C61" t="s">
+        <v>66</v>
+      </c>
+      <c r="D61" t="s">
+        <v>133</v>
+      </c>
+      <c r="E61" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="1">
+        <v>60</v>
+      </c>
+      <c r="B62" t="s">
+        <v>20</v>
+      </c>
+      <c r="C62" t="s">
+        <v>27</v>
+      </c>
+      <c r="D62" t="s">
+        <v>94</v>
+      </c>
+      <c r="E62" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="1">
+        <v>61</v>
+      </c>
+      <c r="B63" t="s">
+        <v>20</v>
+      </c>
+      <c r="C63" t="s">
+        <v>27</v>
+      </c>
+      <c r="D63" t="s">
+        <v>94</v>
+      </c>
+      <c r="E63" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="1">
+        <v>62</v>
+      </c>
+      <c r="B64" t="s">
+        <v>20</v>
+      </c>
+      <c r="C64" t="s">
+        <v>28</v>
+      </c>
+      <c r="D64" t="s">
+        <v>95</v>
+      </c>
+      <c r="E64" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="1">
+        <v>63</v>
+      </c>
+      <c r="B65" t="s">
+        <v>20</v>
+      </c>
+      <c r="C65" t="s">
+        <v>67</v>
+      </c>
+      <c r="D65" t="s">
+        <v>134</v>
+      </c>
+      <c r="E65" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="1">
+        <v>64</v>
+      </c>
+      <c r="B66" t="s">
+        <v>19</v>
+      </c>
+      <c r="C66" t="s">
+        <v>27</v>
+      </c>
+      <c r="D66" t="s">
+        <v>94</v>
+      </c>
+      <c r="E66" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="1">
+        <v>65</v>
+      </c>
+      <c r="B67" t="s">
+        <v>21</v>
+      </c>
+      <c r="C67" t="s">
+        <v>68</v>
+      </c>
+      <c r="D67" t="s">
+        <v>135</v>
+      </c>
+      <c r="E67" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68" s="1">
+        <v>66</v>
+      </c>
+      <c r="B68" t="s">
+        <v>19</v>
+      </c>
+      <c r="C68" t="s">
+        <v>69</v>
+      </c>
+      <c r="D68" t="s">
+        <v>136</v>
+      </c>
+      <c r="E68" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69" s="1">
+        <v>67</v>
+      </c>
+      <c r="B69" t="s">
+        <v>22</v>
+      </c>
+      <c r="C69" t="s">
         <v>70</v>
+      </c>
+      <c r="D69" t="s">
+        <v>137</v>
+      </c>
+      <c r="E69" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70" s="1">
+        <v>68</v>
+      </c>
+      <c r="B70" t="s">
+        <v>22</v>
+      </c>
+      <c r="C70" t="s">
+        <v>71</v>
+      </c>
+      <c r="D70" t="s">
+        <v>138</v>
+      </c>
+      <c r="E70" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71" s="1">
+        <v>69</v>
+      </c>
+      <c r="B71" t="s">
+        <v>22</v>
+      </c>
+      <c r="C71" t="s">
+        <v>72</v>
+      </c>
+      <c r="D71" t="s">
+        <v>139</v>
+      </c>
+      <c r="E71" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" s="1">
+        <v>70</v>
+      </c>
+      <c r="B72" t="s">
+        <v>22</v>
+      </c>
+      <c r="C72" t="s">
+        <v>73</v>
+      </c>
+      <c r="D72" t="s">
+        <v>140</v>
+      </c>
+      <c r="E72" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" s="1">
+        <v>71</v>
+      </c>
+      <c r="B73" t="s">
+        <v>22</v>
+      </c>
+      <c r="C73" t="s">
+        <v>74</v>
+      </c>
+      <c r="D73" t="s">
+        <v>141</v>
+      </c>
+      <c r="E73" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74" s="1">
+        <v>72</v>
+      </c>
+      <c r="B74" t="s">
+        <v>22</v>
+      </c>
+      <c r="C74" t="s">
+        <v>74</v>
+      </c>
+      <c r="D74" t="s">
+        <v>141</v>
+      </c>
+      <c r="E74" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75" s="1">
+        <v>73</v>
+      </c>
+      <c r="B75" t="s">
+        <v>19</v>
+      </c>
+      <c r="C75" t="s">
+        <v>65</v>
+      </c>
+      <c r="D75" t="s">
+        <v>132</v>
+      </c>
+      <c r="E75" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76" s="1">
+        <v>74</v>
+      </c>
+      <c r="B76" t="s">
+        <v>22</v>
+      </c>
+      <c r="C76" t="s">
+        <v>75</v>
+      </c>
+      <c r="D76" t="s">
+        <v>142</v>
+      </c>
+      <c r="E76" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77" s="1">
+        <v>75</v>
+      </c>
+      <c r="B77" t="s">
+        <v>22</v>
+      </c>
+      <c r="C77" t="s">
+        <v>76</v>
+      </c>
+      <c r="D77" t="s">
+        <v>143</v>
+      </c>
+      <c r="E77" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78" s="1">
+        <v>76</v>
+      </c>
+      <c r="B78" t="s">
+        <v>22</v>
+      </c>
+      <c r="C78" t="s">
+        <v>70</v>
+      </c>
+      <c r="D78" t="s">
+        <v>137</v>
+      </c>
+      <c r="E78" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79" s="1">
+        <v>77</v>
+      </c>
+      <c r="B79" t="s">
+        <v>19</v>
+      </c>
+      <c r="C79" t="s">
+        <v>77</v>
+      </c>
+      <c r="D79" t="s">
+        <v>144</v>
+      </c>
+      <c r="E79" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
+      <c r="A80" s="1">
+        <v>78</v>
+      </c>
+      <c r="B80" t="s">
+        <v>19</v>
+      </c>
+      <c r="C80" t="s">
+        <v>70</v>
+      </c>
+      <c r="D80" t="s">
+        <v>137</v>
+      </c>
+      <c r="E80" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
+      <c r="A81" s="1">
+        <v>79</v>
+      </c>
+      <c r="B81" t="s">
+        <v>21</v>
+      </c>
+      <c r="C81" t="s">
+        <v>78</v>
+      </c>
+      <c r="D81" t="s">
+        <v>145</v>
+      </c>
+      <c r="E81" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
+      <c r="A82" s="1">
+        <v>80</v>
+      </c>
+      <c r="B82" t="s">
+        <v>19</v>
+      </c>
+      <c r="C82" t="s">
+        <v>79</v>
+      </c>
+      <c r="D82" t="s">
+        <v>146</v>
+      </c>
+      <c r="E82" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
+      <c r="A83" s="1">
+        <v>81</v>
+      </c>
+      <c r="B83" t="s">
+        <v>19</v>
+      </c>
+      <c r="C83" t="s">
+        <v>27</v>
+      </c>
+      <c r="D83" t="s">
+        <v>94</v>
+      </c>
+      <c r="E83" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
+      <c r="A84" s="1">
+        <v>82</v>
+      </c>
+      <c r="B84" t="s">
+        <v>19</v>
+      </c>
+      <c r="C84" t="s">
+        <v>30</v>
+      </c>
+      <c r="D84" t="s">
+        <v>97</v>
+      </c>
+      <c r="E84" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
+      <c r="A85" s="1">
+        <v>83</v>
+      </c>
+      <c r="B85" t="s">
+        <v>19</v>
+      </c>
+      <c r="C85" t="s">
+        <v>80</v>
+      </c>
+      <c r="D85" t="s">
+        <v>147</v>
+      </c>
+      <c r="E85" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
+      <c r="A86" s="1">
+        <v>84</v>
+      </c>
+      <c r="B86" t="s">
+        <v>19</v>
+      </c>
+      <c r="C86" t="s">
+        <v>31</v>
+      </c>
+      <c r="D86" t="s">
+        <v>98</v>
+      </c>
+      <c r="E86" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
+      <c r="A87" s="1">
+        <v>85</v>
+      </c>
+      <c r="B87" t="s">
+        <v>19</v>
+      </c>
+      <c r="C87" t="s">
+        <v>81</v>
+      </c>
+      <c r="D87" t="s">
+        <v>148</v>
+      </c>
+      <c r="E87" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
+      <c r="A88" s="1">
+        <v>86</v>
+      </c>
+      <c r="B88" t="s">
+        <v>21</v>
+      </c>
+      <c r="C88" t="s">
+        <v>53</v>
+      </c>
+      <c r="D88" t="s">
+        <v>120</v>
+      </c>
+      <c r="E88" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
+      <c r="A89" s="1">
+        <v>87</v>
+      </c>
+      <c r="B89" t="s">
+        <v>21</v>
+      </c>
+      <c r="C89" t="s">
+        <v>27</v>
+      </c>
+      <c r="D89" t="s">
+        <v>94</v>
+      </c>
+      <c r="E89" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
+      <c r="A90" s="1">
+        <v>88</v>
+      </c>
+      <c r="B90" t="s">
+        <v>23</v>
+      </c>
+      <c r="C90" t="s">
+        <v>27</v>
+      </c>
+      <c r="D90" t="s">
+        <v>94</v>
+      </c>
+      <c r="E90" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
+      <c r="A91" s="1">
+        <v>89</v>
+      </c>
+      <c r="B91" t="s">
+        <v>23</v>
+      </c>
+      <c r="C91" t="s">
+        <v>82</v>
+      </c>
+      <c r="D91" t="s">
+        <v>149</v>
+      </c>
+      <c r="E91" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" s="1">
+        <v>90</v>
+      </c>
+      <c r="B92" t="s">
+        <v>23</v>
+      </c>
+      <c r="C92" t="s">
+        <v>83</v>
+      </c>
+      <c r="D92" t="s">
+        <v>150</v>
+      </c>
+      <c r="E92" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" s="1">
+        <v>91</v>
+      </c>
+      <c r="B93" t="s">
+        <v>23</v>
+      </c>
+      <c r="C93" t="s">
+        <v>42</v>
+      </c>
+      <c r="D93" t="s">
+        <v>109</v>
+      </c>
+      <c r="E93" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="A94" s="1">
+        <v>92</v>
+      </c>
+      <c r="B94" t="s">
+        <v>23</v>
+      </c>
+      <c r="C94" t="s">
+        <v>30</v>
+      </c>
+      <c r="D94" t="s">
+        <v>97</v>
+      </c>
+      <c r="E94" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
+      <c r="A95" s="1">
+        <v>93</v>
+      </c>
+      <c r="B95" t="s">
+        <v>23</v>
+      </c>
+      <c r="C95" t="s">
+        <v>84</v>
+      </c>
+      <c r="D95" t="s">
+        <v>151</v>
+      </c>
+      <c r="E95" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="A96" s="1">
+        <v>94</v>
+      </c>
+      <c r="B96" t="s">
+        <v>23</v>
+      </c>
+      <c r="C96" t="s">
+        <v>31</v>
+      </c>
+      <c r="D96" t="s">
+        <v>98</v>
+      </c>
+      <c r="E96" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
+      <c r="A97" s="1">
+        <v>95</v>
+      </c>
+      <c r="B97" t="s">
+        <v>23</v>
+      </c>
+      <c r="C97" t="s">
+        <v>85</v>
+      </c>
+      <c r="D97" t="s">
+        <v>152</v>
+      </c>
+      <c r="E97" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
+      <c r="A98" s="1">
+        <v>96</v>
+      </c>
+      <c r="B98" t="s">
+        <v>23</v>
+      </c>
+      <c r="C98" t="s">
+        <v>86</v>
+      </c>
+      <c r="D98" t="s">
+        <v>153</v>
+      </c>
+      <c r="E98" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
+      <c r="A99" s="1">
+        <v>97</v>
+      </c>
+      <c r="B99" t="s">
+        <v>23</v>
+      </c>
+      <c r="C99" t="s">
+        <v>87</v>
+      </c>
+      <c r="D99" t="s">
+        <v>154</v>
+      </c>
+      <c r="E99" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
+      <c r="A100" s="1">
+        <v>98</v>
+      </c>
+      <c r="B100" t="s">
+        <v>24</v>
+      </c>
+      <c r="C100" t="s">
+        <v>27</v>
+      </c>
+      <c r="D100" t="s">
+        <v>94</v>
+      </c>
+      <c r="E100" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
+      <c r="A101" s="1">
+        <v>99</v>
+      </c>
+      <c r="B101" t="s">
+        <v>24</v>
+      </c>
+      <c r="C101" t="s">
+        <v>88</v>
+      </c>
+      <c r="D101" t="s">
+        <v>155</v>
+      </c>
+      <c r="E101" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
+      <c r="A102" s="1">
+        <v>100</v>
+      </c>
+      <c r="B102" t="s">
+        <v>24</v>
+      </c>
+      <c r="C102" t="s">
+        <v>89</v>
+      </c>
+      <c r="D102" t="s">
+        <v>156</v>
+      </c>
+      <c r="E102" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
+      <c r="A103" s="1">
+        <v>101</v>
+      </c>
+      <c r="B103" t="s">
+        <v>24</v>
+      </c>
+      <c r="C103" t="s">
+        <v>90</v>
+      </c>
+      <c r="D103" t="s">
+        <v>157</v>
+      </c>
+      <c r="E103" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
+      <c r="A104" s="1">
+        <v>102</v>
+      </c>
+      <c r="B104" t="s">
+        <v>24</v>
+      </c>
+      <c r="C104" t="s">
+        <v>44</v>
+      </c>
+      <c r="D104" t="s">
+        <v>111</v>
+      </c>
+      <c r="E104" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
+      <c r="A105" s="1">
+        <v>103</v>
+      </c>
+      <c r="B105" t="s">
+        <v>24</v>
+      </c>
+      <c r="C105" t="s">
+        <v>91</v>
+      </c>
+      <c r="D105" t="s">
+        <v>158</v>
+      </c>
+      <c r="E105" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
+      <c r="A106" s="1">
+        <v>104</v>
+      </c>
+      <c r="B106" t="s">
+        <v>24</v>
+      </c>
+      <c r="C106" t="s">
+        <v>92</v>
+      </c>
+      <c r="D106" t="s">
+        <v>159</v>
+      </c>
+      <c r="E106" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
+      <c r="A107" s="1">
+        <v>105</v>
+      </c>
+      <c r="B107" t="s">
+        <v>25</v>
+      </c>
+      <c r="C107" t="s">
+        <v>28</v>
+      </c>
+      <c r="D107" t="s">
+        <v>95</v>
+      </c>
+      <c r="E107" t="s">
+        <v>261</v>
       </c>
     </row>
   </sheetData>
